--- a/data/evaluation/evaluation_South_Spring_Tomatoes.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Tomatoes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2945.124466509442</v>
+        <v>2942.037033112914</v>
       </c>
       <c r="C4" t="n">
-        <v>17354583.96496572</v>
+        <v>17314052.46921028</v>
       </c>
       <c r="D4" t="n">
-        <v>4165.883335496293</v>
+        <v>4161.015797760239</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1443370061491712</v>
+        <v>0.1463354004105007</v>
       </c>
     </row>
     <row r="5">
